--- a/output/JGP_09143318000104.xlsx
+++ b/output/JGP_09143318000104.xlsx
@@ -2055,10 +2055,10 @@
         <v>44165</v>
       </c>
       <c r="B152">
-        <v>7.3256139399</v>
+        <v>7.4200129635</v>
       </c>
       <c r="C152">
-        <v>0.04985572551263573</v>
+        <v>0.06175939485458137</v>
       </c>
     </row>
   </sheetData>

--- a/output/JGP_09143318000104.xlsx
+++ b/output/JGP_09143318000104.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>JGP EQUITY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>39599</v>
       </c>
@@ -411,1654 +405,1204 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>39629</v>
       </c>
       <c r="B3">
         <v>-0.01589678240000003</v>
       </c>
-      <c r="C3">
-        <v>-0.01589678240000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>39660</v>
       </c>
       <c r="B4">
-        <v>0.03070511650000007</v>
-      </c>
-      <c r="C4">
         <v>0.04735468603959192</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>39691</v>
       </c>
       <c r="B5">
-        <v>-0.01379146009999999</v>
-      </c>
-      <c r="C5">
         <v>-0.04317100583637212</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>39721</v>
       </c>
       <c r="B6">
-        <v>-0.1472206598</v>
-      </c>
-      <c r="C6">
         <v>-0.1352951169065414</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>39752</v>
       </c>
       <c r="B7">
-        <v>-0.2768600858000001</v>
-      </c>
-      <c r="C7">
         <v>-0.1520198952868583</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>39782</v>
       </c>
       <c r="B8">
-        <v>-0.1522664858</v>
-      </c>
-      <c r="C8">
         <v>0.1722952883023148</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39813</v>
       </c>
       <c r="B9">
-        <v>-0.1146427126</v>
-      </c>
-      <c r="C9">
         <v>0.04438160408876279</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39844</v>
       </c>
       <c r="B10">
-        <v>-0.05702245750000001</v>
-      </c>
-      <c r="C10">
         <v>0.06508135858825037</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39872</v>
       </c>
       <c r="B11">
-        <v>-0.05028337709999997</v>
-      </c>
-      <c r="C11">
         <v>0.007146596919088477</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39903</v>
       </c>
       <c r="B12">
-        <v>0.03154035680000011</v>
-      </c>
-      <c r="C12">
         <v>0.08615594581270769</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39933</v>
       </c>
       <c r="B13">
-        <v>0.1647977701000001</v>
-      </c>
-      <c r="C13">
         <v>0.1291829373630959</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39964</v>
       </c>
       <c r="B14">
-        <v>0.3075467349999998</v>
-      </c>
-      <c r="C14">
         <v>0.1225525739869373</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39994</v>
       </c>
       <c r="B15">
-        <v>0.3222093287999999</v>
-      </c>
-      <c r="C15">
         <v>0.01121382005515859</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40025</v>
       </c>
       <c r="B16">
-        <v>0.4461240464</v>
-      </c>
-      <c r="C16">
         <v>0.09371792718514671</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40056</v>
       </c>
       <c r="B17">
-        <v>0.5318809705999998</v>
-      </c>
-      <c r="C17">
         <v>0.05930122275020899</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40086</v>
       </c>
       <c r="B18">
-        <v>0.6500057982999998</v>
-      </c>
-      <c r="C18">
         <v>0.07711097008649004</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40117</v>
       </c>
       <c r="B19">
-        <v>0.6964875854999999</v>
-      </c>
-      <c r="C19">
         <v>0.02817068112602406</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40147</v>
       </c>
       <c r="B20">
-        <v>0.8415863529000001</v>
-      </c>
-      <c r="C20">
         <v>0.08552892967810055</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40178</v>
       </c>
       <c r="B21">
-        <v>0.9312144268</v>
-      </c>
-      <c r="C21">
         <v>0.04866894987512249</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40209</v>
       </c>
       <c r="B22">
-        <v>0.8408835946</v>
-      </c>
-      <c r="C22">
         <v>-0.04677410801537829</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40237</v>
       </c>
       <c r="B23">
-        <v>0.9192401846000002</v>
-      </c>
-      <c r="C23">
         <v>0.04256466309431484</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40268</v>
       </c>
       <c r="B24">
-        <v>0.9885759229000002</v>
-      </c>
-      <c r="C24">
         <v>0.03612666036088164</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40298</v>
       </c>
       <c r="B25">
-        <v>0.9493927503000001</v>
-      </c>
-      <c r="C25">
         <v>-0.01970413709065633</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40329</v>
       </c>
       <c r="B26">
-        <v>0.8864977495999999</v>
-      </c>
-      <c r="C26">
         <v>-0.0322638938153027</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40359</v>
       </c>
       <c r="B27">
-        <v>0.8925428205000001</v>
-      </c>
-      <c r="C27">
         <v>0.003204388079064424</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40390</v>
       </c>
       <c r="B28">
-        <v>1.0798492144</v>
-      </c>
-      <c r="C28">
         <v>0.09897075610184314</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40421</v>
       </c>
       <c r="B29">
-        <v>1.0781213272</v>
-      </c>
-      <c r="C29">
         <v>-0.0008307752254522738</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40451</v>
       </c>
       <c r="B30">
-        <v>1.2079982182</v>
-      </c>
-      <c r="C30">
         <v>0.06249726101170072</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>40482</v>
       </c>
       <c r="B31">
-        <v>1.2874320915</v>
-      </c>
-      <c r="C31">
         <v>0.03597551512734265</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>40512</v>
       </c>
       <c r="B32">
-        <v>1.2442384376</v>
-      </c>
-      <c r="C32">
         <v>-0.01888303222662024</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>40543</v>
       </c>
       <c r="B33">
-        <v>1.2811785912</v>
-      </c>
-      <c r="C33">
         <v>0.01645999506162266</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>40574</v>
       </c>
       <c r="B34">
-        <v>1.20296109</v>
-      </c>
-      <c r="C34">
         <v>-0.0342881971195661</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>40602</v>
       </c>
       <c r="B35">
-        <v>1.2408931074</v>
-      </c>
-      <c r="C35">
         <v>0.01721865064806916</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>40633</v>
       </c>
       <c r="B36">
-        <v>1.308164046</v>
-      </c>
-      <c r="C36">
         <v>0.03001969990351361</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>40663</v>
       </c>
       <c r="B37">
-        <v>1.3126633435</v>
-      </c>
-      <c r="C37">
         <v>0.001949297108148507</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>40694</v>
       </c>
       <c r="B38">
-        <v>1.3216768815</v>
-      </c>
-      <c r="C38">
         <v>0.003897470864202335</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>40724</v>
       </c>
       <c r="B39">
-        <v>1.3317385334</v>
-      </c>
-      <c r="C39">
         <v>0.004333786488625924</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>40755</v>
       </c>
       <c r="B40">
-        <v>1.2662340438</v>
-      </c>
-      <c r="C40">
         <v>-0.02809255354393669</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40786</v>
       </c>
       <c r="B41">
-        <v>1.2496520064</v>
-      </c>
-      <c r="C41">
         <v>-0.007317001280324753</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>40816</v>
       </c>
       <c r="B42">
-        <v>1.2135242552</v>
-      </c>
-      <c r="C42">
         <v>-0.01605926209796926</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>40847</v>
       </c>
       <c r="B43">
-        <v>1.3776914693</v>
-      </c>
-      <c r="C43">
         <v>0.0741655365710765</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>40877</v>
       </c>
       <c r="B44">
-        <v>1.4180767562</v>
-      </c>
-      <c r="C44">
         <v>0.01698508297709855</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40908</v>
       </c>
       <c r="B45">
-        <v>1.4498029618</v>
-      </c>
-      <c r="C45">
         <v>0.01312042949780379</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40939</v>
       </c>
       <c r="B46">
-        <v>1.5767383727</v>
-      </c>
-      <c r="C46">
         <v>0.05181453891570675</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40968</v>
       </c>
       <c r="B47">
-        <v>1.6603396614</v>
-      </c>
-      <c r="C47">
         <v>0.03244461664627596</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40999</v>
       </c>
       <c r="B48">
-        <v>1.6843471808</v>
-      </c>
-      <c r="C48">
         <v>0.009024230908682318</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41029</v>
       </c>
       <c r="B49">
-        <v>1.7092242024</v>
-      </c>
-      <c r="C49">
         <v>0.009267438197985367</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41060</v>
       </c>
       <c r="B50">
-        <v>1.605320099</v>
-      </c>
-      <c r="C50">
         <v>-0.03835197666843349</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41090</v>
       </c>
       <c r="B51">
-        <v>1.6728411985</v>
-      </c>
-      <c r="C51">
         <v>0.02591662326864053</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41121</v>
       </c>
       <c r="B52">
-        <v>1.7592698942</v>
-      </c>
-      <c r="C52">
         <v>0.03233588877203153</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41152</v>
       </c>
       <c r="B53">
-        <v>1.8206417112</v>
-      </c>
-      <c r="C53">
         <v>0.02224204929318585</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41182</v>
       </c>
       <c r="B54">
-        <v>1.8994185482</v>
-      </c>
-      <c r="C54">
         <v>0.02792869320736413</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41213</v>
       </c>
       <c r="B55">
-        <v>1.9620191867</v>
-      </c>
-      <c r="C55">
         <v>0.02159075602895055</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41243</v>
       </c>
       <c r="B56">
-        <v>2.0131272592</v>
-      </c>
-      <c r="C56">
         <v>0.01725447044012562</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41274</v>
       </c>
       <c r="B57">
-        <v>2.1236925542</v>
-      </c>
-      <c r="C57">
         <v>0.03669453212187102</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41305</v>
       </c>
       <c r="B58">
-        <v>2.1740228072</v>
-      </c>
-      <c r="C58">
         <v>0.01611242211796049</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41333</v>
       </c>
       <c r="B59">
-        <v>2.1934062049</v>
-      </c>
-      <c r="C59">
         <v>0.00610688671046411</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41364</v>
       </c>
       <c r="B60">
-        <v>2.169835049</v>
-      </c>
-      <c r="C60">
         <v>-0.007381195622352177</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41394</v>
       </c>
       <c r="B61">
-        <v>2.1907131559</v>
-      </c>
-      <c r="C61">
         <v>0.006586496324654467</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>41425</v>
       </c>
       <c r="B62">
-        <v>2.1834824193</v>
-      </c>
-      <c r="C62">
         <v>-0.002266181962057412</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>41455</v>
       </c>
       <c r="B63">
-        <v>1.9905064707</v>
-      </c>
-      <c r="C63">
         <v>-0.06061787790316497</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>41486</v>
       </c>
       <c r="B64">
-        <v>2.0537219614</v>
-      </c>
-      <c r="C64">
         <v>0.02113872393167004</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>41517</v>
       </c>
       <c r="B65">
-        <v>2.1348613881</v>
-      </c>
-      <c r="C65">
         <v>0.02657066613320636</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>41547</v>
       </c>
       <c r="B66">
-        <v>2.2747180758</v>
-      </c>
-      <c r="C66">
         <v>0.04461335618566697</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>41578</v>
       </c>
       <c r="B67">
-        <v>2.4185124958</v>
-      </c>
-      <c r="C67">
         <v>0.04391047310687091</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>41608</v>
       </c>
       <c r="B68">
-        <v>2.4250265914</v>
-      </c>
-      <c r="C68">
         <v>0.00190553511446967</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>41639</v>
       </c>
       <c r="B69">
-        <v>2.4128585997</v>
-      </c>
-      <c r="C69">
         <v>-0.003552670723945051</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>41670</v>
       </c>
       <c r="B70">
-        <v>2.2255181454</v>
-      </c>
-      <c r="C70">
         <v>-0.0548925332905581</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>41698</v>
       </c>
       <c r="B71">
-        <v>2.2985378592</v>
-      </c>
-      <c r="C71">
         <v>0.02263813455960095</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>41729</v>
       </c>
       <c r="B72">
-        <v>2.413239001</v>
-      </c>
-      <c r="C72">
         <v>0.03477332887966877</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>41759</v>
       </c>
       <c r="B73">
-        <v>2.4988861001</v>
-      </c>
-      <c r="C73">
         <v>0.02509261703470145</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>41790</v>
       </c>
       <c r="B74">
-        <v>2.5242700362</v>
-      </c>
-      <c r="C74">
         <v>0.007254862082899605</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>41820</v>
       </c>
       <c r="B75">
-        <v>2.6192826855</v>
-      </c>
-      <c r="C75">
         <v>0.02695952589445905</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>41851</v>
       </c>
       <c r="B76">
-        <v>2.7359515399</v>
-      </c>
-      <c r="C76">
         <v>0.03223535284143808</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>41882</v>
       </c>
       <c r="B77">
-        <v>2.9606787783</v>
-      </c>
-      <c r="C77">
         <v>0.06015261065351374</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41912</v>
       </c>
       <c r="B78">
-        <v>2.5914441176</v>
-      </c>
-      <c r="C78">
         <v>-0.09322509634534981</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41943</v>
       </c>
       <c r="B79">
-        <v>2.6123750466</v>
-      </c>
-      <c r="C79">
         <v>0.005827997962554177</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41973</v>
       </c>
       <c r="B80">
-        <v>2.6625531579</v>
-      </c>
-      <c r="C80">
         <v>0.01389061508085332</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42004</v>
       </c>
       <c r="B81">
-        <v>2.4605920171</v>
-      </c>
-      <c r="C81">
         <v>-0.05514217325812099</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42035</v>
       </c>
       <c r="B82">
-        <v>2.3068434366</v>
-      </c>
-      <c r="C82">
         <v>-0.04442840408238646</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42063</v>
       </c>
       <c r="B83">
-        <v>2.5517176272</v>
-      </c>
-      <c r="C83">
         <v>0.07405073608558022</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42094</v>
       </c>
       <c r="B84">
-        <v>2.598725638</v>
-      </c>
-      <c r="C84">
         <v>0.01323528943855234</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42124</v>
       </c>
       <c r="B85">
-        <v>2.7561244199</v>
-      </c>
-      <c r="C85">
         <v>0.04373736642715409</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42155</v>
       </c>
       <c r="B86">
-        <v>2.59794944</v>
-      </c>
-      <c r="C86">
         <v>-0.04211121949581509</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42185</v>
       </c>
       <c r="B87">
-        <v>2.5799812286</v>
-      </c>
-      <c r="C87">
         <v>-0.004994014423949089</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42216</v>
       </c>
       <c r="B88">
-        <v>2.6082163929</v>
-      </c>
-      <c r="C88">
         <v>0.007886958756775808</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42247</v>
       </c>
       <c r="B89">
-        <v>2.4125591562</v>
-      </c>
-      <c r="C89">
         <v>-0.05422547192152916</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42277</v>
       </c>
       <c r="B90">
-        <v>2.3342459763</v>
-      </c>
-      <c r="C90">
         <v>-0.02294851937078335</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42308</v>
       </c>
       <c r="B91">
-        <v>2.4632188357</v>
-      </c>
-      <c r="C91">
         <v>0.03868126716407438</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42338</v>
       </c>
       <c r="B92">
-        <v>2.4871111643</v>
-      </c>
-      <c r="C92">
         <v>0.006898879260446966</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42369</v>
       </c>
       <c r="B93">
-        <v>2.5013872277</v>
-      </c>
-      <c r="C93">
         <v>0.004093951333170587</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42400</v>
       </c>
       <c r="B94">
-        <v>2.437641215</v>
-      </c>
-      <c r="C94">
         <v>-0.01820593055109587</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>42429</v>
       </c>
       <c r="B95">
-        <v>2.5357325056</v>
-      </c>
-      <c r="C95">
         <v>0.02853447595752101</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>42460</v>
       </c>
       <c r="B96">
-        <v>2.7718263027</v>
-      </c>
-      <c r="C96">
         <v>0.06677365912892652</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>42490</v>
       </c>
       <c r="B97">
-        <v>2.9316969345</v>
-      </c>
-      <c r="C97">
         <v>0.04238547031859863</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>42521</v>
       </c>
       <c r="B98">
-        <v>2.7798397564</v>
-      </c>
-      <c r="C98">
         <v>-0.03862382595349056</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>42551</v>
       </c>
       <c r="B99">
-        <v>3.0059465292</v>
-      </c>
-      <c r="C99">
         <v>0.05981914244305142</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>42582</v>
       </c>
       <c r="B100">
-        <v>3.3331427817</v>
-      </c>
-      <c r="C100">
         <v>0.08167763850940424</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>42613</v>
       </c>
       <c r="B101">
-        <v>3.3422848776</v>
-      </c>
-      <c r="C101">
         <v>0.002109807213971582</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>42643</v>
       </c>
       <c r="B102">
-        <v>3.328211602900001</v>
-      </c>
-      <c r="C102">
         <v>-0.003240983743972525</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>42674</v>
       </c>
       <c r="B103">
-        <v>3.6020156471</v>
-      </c>
-      <c r="C103">
         <v>0.06326031842263546</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>42704</v>
       </c>
       <c r="B104">
-        <v>3.3384628701</v>
-      </c>
-      <c r="C104">
         <v>-0.0572689875937471</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>42735</v>
       </c>
       <c r="B105">
-        <v>3.3780663752</v>
-      </c>
-      <c r="C105">
         <v>0.009128464685716375</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>42766</v>
       </c>
       <c r="B106">
-        <v>3.6983197923</v>
-      </c>
-      <c r="C106">
         <v>0.07314951160039707</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>42794</v>
       </c>
       <c r="B107">
-        <v>3.790831202300001</v>
-      </c>
-      <c r="C107">
         <v>0.01969031783481734</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>42825</v>
       </c>
       <c r="B108">
-        <v>3.7614150356</v>
-      </c>
-      <c r="C108">
         <v>-0.00614009666754245</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>42855</v>
       </c>
       <c r="B109">
-        <v>3.826522406600001</v>
-      </c>
-      <c r="C109">
         <v>0.01367395417396056</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42886</v>
       </c>
       <c r="B110">
-        <v>3.6966404014</v>
-      </c>
-      <c r="C110">
         <v>-0.02691005951249581</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42916</v>
       </c>
       <c r="B111">
-        <v>3.708051479</v>
-      </c>
-      <c r="C111">
         <v>0.00242962556737325</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42947</v>
       </c>
       <c r="B112">
-        <v>3.9321978601</v>
-      </c>
-      <c r="C112">
         <v>0.04760916105097679</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42978</v>
       </c>
       <c r="B113">
-        <v>4.1458533857</v>
-      </c>
-      <c r="C113">
         <v>0.04331852282902271</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43008</v>
       </c>
       <c r="B114">
-        <v>4.3326776606</v>
-      </c>
-      <c r="C114">
         <v>0.03630579048738025</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43039</v>
       </c>
       <c r="B115">
-        <v>4.338975077300001</v>
-      </c>
-      <c r="C115">
         <v>0.001180910810816282</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43069</v>
       </c>
       <c r="B116">
-        <v>4.1252776894</v>
-      </c>
-      <c r="C116">
         <v>-0.04002591973290703</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43100</v>
       </c>
       <c r="B117">
-        <v>4.4706602631</v>
-      </c>
-      <c r="C117">
         <v>0.06738807038969097</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43131</v>
       </c>
       <c r="B118">
-        <v>4.860726343500001</v>
-      </c>
-      <c r="C118">
         <v>0.07130146301188267</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43159</v>
       </c>
       <c r="B119">
-        <v>4.9317409831</v>
-      </c>
-      <c r="C119">
         <v>0.01211703728135349</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43190</v>
       </c>
       <c r="B120">
-        <v>4.7762533364</v>
-      </c>
-      <c r="C120">
         <v>-0.02621281798092612</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43220</v>
       </c>
       <c r="B121">
-        <v>4.7425996099</v>
-      </c>
-      <c r="C121">
         <v>-0.005826220655511305</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43251</v>
       </c>
       <c r="B122">
-        <v>4.3472922268</v>
-      </c>
-      <c r="C122">
         <v>-0.06883770590909843</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43281</v>
       </c>
       <c r="B123">
-        <v>4.2014657386</v>
-      </c>
-      <c r="C123">
         <v>-0.02727109011718787</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43312</v>
       </c>
       <c r="B124">
-        <v>4.5466857793</v>
-      </c>
-      <c r="C124">
         <v>0.06636976153435503</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43343</v>
       </c>
       <c r="B125">
-        <v>4.3611012922</v>
-      </c>
-      <c r="C125">
         <v>-0.03345862637335495</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43373</v>
       </c>
       <c r="B126">
-        <v>4.4131948571</v>
-      </c>
-      <c r="C126">
         <v>0.009716952182155625</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43404</v>
       </c>
       <c r="B127">
-        <v>4.9962038706</v>
-      </c>
-      <c r="C127">
         <v>0.1077014644568577</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>43434</v>
       </c>
       <c r="B128">
-        <v>5.1000397217</v>
-      </c>
-      <c r="C128">
         <v>0.01731693140206891</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>43465</v>
       </c>
       <c r="B129">
-        <v>5.1383781131</v>
-      </c>
-      <c r="C129">
         <v>0.006284941270729316</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>43496</v>
       </c>
       <c r="B130">
-        <v>5.5767187273</v>
-      </c>
-      <c r="C130">
         <v>0.071409842489913</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>43524</v>
       </c>
       <c r="B131">
-        <v>5.5438377586</v>
-      </c>
-      <c r="C131">
         <v>-0.004999600874446841</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>43555</v>
       </c>
       <c r="B132">
-        <v>5.5418368643</v>
-      </c>
-      <c r="C132">
         <v>-0.0003057677121306446</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>43585</v>
       </c>
       <c r="B133">
-        <v>5.612871635499999</v>
-      </c>
-      <c r="C133">
         <v>0.01085853601572517</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>43616</v>
       </c>
       <c r="B134">
-        <v>5.728518834499999</v>
-      </c>
-      <c r="C134">
         <v>0.01748819656186407</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>43646</v>
       </c>
       <c r="B135">
-        <v>5.981284145</v>
-      </c>
-      <c r="C135">
         <v>0.03756626335115021</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>43677</v>
       </c>
       <c r="B136">
-        <v>6.1658774941</v>
-      </c>
-      <c r="C136">
         <v>0.02644117403990864</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>43708</v>
       </c>
       <c r="B137">
-        <v>6.1501529097</v>
-      </c>
-      <c r="C137">
         <v>-0.002194369693445997</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>43738</v>
       </c>
       <c r="B138">
-        <v>6.221873982</v>
-      </c>
-      <c r="C138">
         <v>0.01003070468642742</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>43769</v>
       </c>
       <c r="B139">
-        <v>6.290628354000001</v>
-      </c>
-      <c r="C139">
         <v>0.009520295171497883</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>43799</v>
       </c>
       <c r="B140">
-        <v>6.3737194414</v>
-      </c>
-      <c r="C140">
         <v>0.01139697202565682</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>43830</v>
       </c>
       <c r="B141">
-        <v>6.8594800027</v>
-      </c>
-      <c r="C141">
         <v>0.06587727742564775</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>43861</v>
       </c>
       <c r="B142">
-        <v>7.096690751100001</v>
-      </c>
-      <c r="C142">
         <v>0.03018148125811249</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43890</v>
       </c>
       <c r="B143">
-        <v>6.556174667000001</v>
-      </c>
-      <c r="C143">
         <v>-0.06675765454257554</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43921</v>
       </c>
       <c r="B144">
-        <v>4.4303304077</v>
-      </c>
-      <c r="C144">
         <v>-0.281338686966062</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43951</v>
       </c>
       <c r="B145">
-        <v>5.081648844799999</v>
-      </c>
-      <c r="C145">
         <v>0.1199408485672355</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43982</v>
       </c>
       <c r="B146">
-        <v>5.7280822257</v>
-      </c>
-      <c r="C146">
         <v>0.1062924541348225</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>44012</v>
       </c>
       <c r="B147">
-        <v>6.4514576655</v>
-      </c>
-      <c r="C147">
         <v>0.1075158441192712</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>44043</v>
       </c>
       <c r="B148">
-        <v>7.2548143694</v>
-      </c>
-      <c r="C148">
         <v>0.1078120201392965</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>44074</v>
       </c>
       <c r="B149">
-        <v>7.2491100708</v>
-      </c>
-      <c r="C149">
         <v>-0.0006910268777388096</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>44104</v>
       </c>
       <c r="B150">
-        <v>7.0136317086</v>
-      </c>
-      <c r="C150">
         <v>-0.02854591103512372</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>44135</v>
       </c>
       <c r="B151">
-        <v>6.9302457829</v>
-      </c>
-      <c r="C151">
         <v>-0.01040551010230639</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>44165</v>
       </c>
       <c r="B152">
-        <v>7.4200129635</v>
-      </c>
-      <c r="C152">
-        <v>0.06175939485458137</v>
+        <v>0.05140347798286382</v>
       </c>
     </row>
   </sheetData>
